--- a/public/demoFiles/Vendor.xlsx
+++ b/public/demoFiles/Vendor.xlsx
@@ -34,10 +34,10 @@
     <t>Po_Amount</t>
   </si>
   <si>
+    <t>Site_Count</t>
+  </si>
+  <si>
     <t>Total_Amount</t>
-  </si>
-  <si>
-    <t>Site_Count</t>
   </si>
 </sst>
 </file>
@@ -81,9 +81,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +427,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +438,7 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -450,20 +451,20 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/demoFiles/Vendor.xlsx
+++ b/public/demoFiles/Vendor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Total_Amount</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +444,7 @@
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,6 +468,9 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
